--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="930">
   <si>
     <t>anchor score</t>
   </si>
@@ -421,388 +421,388 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3169,10 +3169,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3230,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03071508078157144</v>
+        <v>0.03122027033228742</v>
       </c>
       <c r="C3">
         <v>126</v>
@@ -3251,16 +3251,16 @@
         <v>166</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K3">
-        <v>0.004685010511151459</v>
+        <v>0.008513176923662739</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="M3">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3280,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01094526751349763</v>
+        <v>0.011125290962465</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -3301,16 +3301,16 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K4">
-        <v>0.004504749801421102</v>
+        <v>0.007960096820674022</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3330,7 +3330,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01073792263527404</v>
+        <v>0.01091453575735287</v>
       </c>
       <c r="C5">
         <v>63</v>
@@ -3351,28 +3351,28 @@
         <v>452</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="K5">
-        <v>0.004065421591090488</v>
+        <v>0.004685010511151459</v>
       </c>
       <c r="L5">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2824</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01059770969989035</v>
+        <v>0.01077201665483471</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -3401,28 +3401,28 @@
         <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="K6">
-        <v>0.003991156055067749</v>
+        <v>0.004504749801421102</v>
       </c>
       <c r="L6">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>236</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3430,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01023836026052381</v>
+        <v>0.01040675677742914</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3451,28 +3451,28 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.003818670324692552</v>
+        <v>0.004065421591090488</v>
       </c>
       <c r="L7">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="M7">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3480,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009075336393084461</v>
+        <v>0.009224603951507079</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3501,28 +3501,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="K8">
-        <v>0.003640387579581274</v>
+        <v>0.003991156055067749</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3530,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008652993735625066</v>
+        <v>0.008795314768369063</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3551,28 +3551,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="K9">
-        <v>0.00352479011736465</v>
+        <v>0.003818670324692552</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3580,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008208950635123223</v>
+        <v>0.008343968221848753</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3601,16 +3601,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K10">
-        <v>0.00352479011736465</v>
+        <v>0.003640387579581274</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3630,7 +3630,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007239613968447257</v>
+        <v>0.007358688287479207</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3651,28 +3651,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="K11">
-        <v>0.003304680716482939</v>
+        <v>0.00352479011736465</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3680,7 +3680,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -3701,16 +3701,16 @@
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12">
-        <v>0.003281401020185631</v>
+        <v>0.00352479011736465</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3730,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3751,28 +3751,28 @@
         <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K13">
-        <v>0.003247050769504463</v>
+        <v>0.003304680716482939</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3780,7 +3780,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006702580126582596</v>
+        <v>0.006812821524509104</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3801,16 +3801,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K14">
-        <v>0.003217678429586501</v>
+        <v>0.003281401020185631</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3830,7 +3830,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3851,28 +3851,28 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="K15">
-        <v>0.003018449923235286</v>
+        <v>0.003247050769504463</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3880,7 +3880,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -3901,16 +3901,16 @@
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K16">
-        <v>0.002949050993121355</v>
+        <v>0.003217678429586501</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3930,7 +3930,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -3951,28 +3951,28 @@
         <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="K17">
-        <v>0.00281126661482804</v>
+        <v>0.003018449923235286</v>
       </c>
       <c r="L17">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3980,7 +3980,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -4001,16 +4001,16 @@
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K18">
-        <v>0.002805107021475643</v>
+        <v>0.002949050993121355</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4030,7 +4030,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K19">
         <v>0.002805107021475643</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>211</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4080,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4101,28 +4101,28 @@
         <v>144</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="K20">
-        <v>0.00275729283559132</v>
+        <v>0.002805107021475643</v>
       </c>
       <c r="L20">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4130,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4151,28 +4151,28 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K21">
-        <v>0.002755625638409222</v>
+        <v>0.00275729283559132</v>
       </c>
       <c r="L21">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>167</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4180,7 +4180,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4201,28 +4201,28 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="K22">
-        <v>0.002653365606891341</v>
+        <v>0.002755625638409222</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>117</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4230,7 +4230,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0061185905480252</v>
+        <v>0.006219226715383953</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4251,28 +4251,28 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="K23">
-        <v>0.002561221241128859</v>
+        <v>0.002653365606891341</v>
       </c>
       <c r="L23">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1943</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4280,7 +4280,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -4301,28 +4301,28 @@
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K24">
-        <v>0.002526100151069882</v>
+        <v>0.002561221241128859</v>
       </c>
       <c r="L24">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="M24">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>799</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4330,7 +4330,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4351,7 +4351,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K25">
         <v>0.002526100151069882</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4380,7 +4380,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4401,28 +4401,28 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="K26">
-        <v>0.002492402994247871</v>
+        <v>0.002526100151069882</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4430,7 +4430,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4451,7 +4451,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K27">
         <v>0.002492402994247871</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4480,7 +4480,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4501,28 +4501,28 @@
         <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="K28">
-        <v>0.002476804384491751</v>
+        <v>0.002492402994247871</v>
       </c>
       <c r="L28">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>3049</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4530,7 +4530,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4551,28 +4551,28 @@
         <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K29">
-        <v>0.002409902701034608</v>
+        <v>0.002476804384491751</v>
       </c>
       <c r="L29">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="M29">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>321</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4580,7 +4580,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4601,28 +4601,28 @@
         <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="K30">
-        <v>0.002407890052865101</v>
+        <v>0.002409902701034608</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4630,7 +4630,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K31">
         <v>0.002407890052865101</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4680,7 +4680,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4701,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K32">
         <v>0.002407890052865101</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4730,7 +4730,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005472633756748815</v>
+        <v>0.005562645481232502</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4751,16 +4751,16 @@
         <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K33">
-        <v>0.002320300913165715</v>
+        <v>0.002407890052865101</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4780,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4801,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K34">
         <v>0.002320300913165715</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4830,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4851,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K35">
         <v>0.002320300913165715</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4880,7 +4880,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4901,7 +4901,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K36">
         <v>0.002320300913165715</v>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4930,7 +4930,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4951,7 +4951,7 @@
         <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K37">
         <v>0.002320300913165715</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4980,7 +4980,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5001,7 +5001,7 @@
         <v>35</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K38">
         <v>0.002320300913165715</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5030,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5051,7 +5051,7 @@
         <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K39">
         <v>0.002320300913165715</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>295</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5080,7 +5080,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5101,7 +5101,7 @@
         <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K40">
         <v>0.002320300913165715</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5130,7 +5130,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5151,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K41">
         <v>0.002320300913165715</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>46</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5180,7 +5180,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5201,28 +5201,28 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="K42">
-        <v>0.002295389579083357</v>
+        <v>0.002320300913165715</v>
       </c>
       <c r="L42">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>788</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5230,7 +5230,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5251,28 +5251,28 @@
         <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K43">
-        <v>0.002262421230144799</v>
+        <v>0.002295389579083357</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="M43">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>360</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5280,7 +5280,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5301,28 +5301,28 @@
         <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K44">
-        <v>0.002241387917576326</v>
+        <v>0.002262421230144799</v>
       </c>
       <c r="L44">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="M44">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>153</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5330,7 +5330,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004739439858952741</v>
+        <v>0.004817392298994061</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5380,7 +5380,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5480,7 +5480,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5530,7 +5530,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5580,7 +5580,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5651,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K51">
         <v>0.002125829429526153</v>
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5701,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K52">
         <v>0.00206255213642957</v>
@@ -5730,7 +5730,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5780,7 +5780,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5830,7 +5830,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5930,7 +5930,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K58">
         <v>0.001977232264161544</v>
@@ -6030,7 +6030,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6080,7 +6080,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6130,7 +6130,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6180,7 +6180,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6230,7 +6230,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6280,7 +6280,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6330,7 +6330,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6380,7 +6380,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6430,7 +6430,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6480,7 +6480,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6530,7 +6530,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6551,7 +6551,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K69">
         <v>0.001766920808195151</v>
@@ -6580,7 +6580,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003869736440347498</v>
+        <v>0.003933384341116208</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6680,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003132891231200109</v>
+        <v>0.003184419792195514</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -6730,7 +6730,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6780,7 +6780,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6830,7 +6830,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6880,7 +6880,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6930,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6980,7 +6980,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7030,7 +7030,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7080,7 +7080,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7130,7 +7130,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7180,7 +7180,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7230,7 +7230,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7280,7 +7280,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7330,7 +7330,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7380,7 +7380,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7451,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K87">
         <v>0.001691761852038793</v>
@@ -7480,7 +7480,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7501,7 +7501,7 @@
         <v>22</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K88">
         <v>0.001691761852038793</v>
@@ -7530,7 +7530,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7551,7 +7551,7 @@
         <v>27</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K89">
         <v>0.001576638831082363</v>
@@ -7580,7 +7580,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7601,7 +7601,7 @@
         <v>38</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K90">
         <v>0.001576638831082363</v>
@@ -7630,7 +7630,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7680,7 +7680,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7730,7 +7730,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7780,7 +7780,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7830,7 +7830,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7880,7 +7880,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7980,7 +7980,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8080,7 +8080,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8130,7 +8130,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8180,7 +8180,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8230,7 +8230,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8330,7 +8330,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8380,7 +8380,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8430,7 +8430,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8451,7 +8451,7 @@
         <v>9</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K107">
         <v>0.001458369909715382</v>
@@ -8480,7 +8480,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8530,7 +8530,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8630,7 +8630,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8680,7 +8680,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8780,7 +8780,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8830,7 +8830,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8930,7 +8930,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8980,7 +8980,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9030,7 +9030,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9080,7 +9080,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9130,7 +9130,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9280,7 +9280,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9330,7 +9330,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9430,7 +9430,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002736316878374407</v>
+        <v>0.002781322740616251</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9530,7 +9530,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002627279577348106</v>
+        <v>0.002670492037010009</v>
       </c>
       <c r="C129">
         <v>11</v>
@@ -9580,25 +9580,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002495642538899774</v>
+        <v>0.002351990041534447</v>
       </c>
       <c r="C130">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>153</v>
+        <v>3049</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>365</v>
@@ -9630,25 +9630,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002367149567092333</v>
+        <v>0.002139036137629232</v>
       </c>
       <c r="C131">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E131">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>366</v>
@@ -9680,25 +9680,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002313931409122722</v>
+        <v>0.002025855466919468</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E132">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F132">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>3049</v>
+        <v>236</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>367</v>
@@ -9730,25 +9730,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002104423410262275</v>
+        <v>0.001964558959998785</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
       <c r="D133">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E133">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F133">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>167</v>
+        <v>788</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>368</v>
@@ -9780,25 +9780,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001993074168030773</v>
+        <v>0.001900519573506614</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E134">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>236</v>
+        <v>799</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>369</v>
@@ -9830,25 +9830,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001932769528075435</v>
+        <v>0.001900519573506614</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E135">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F135">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>788</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>370</v>
@@ -9880,25 +9880,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001869766392344253</v>
+        <v>0.001875313230023177</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>799</v>
+        <v>46</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>371</v>
@@ -9930,13 +9930,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001869766392344253</v>
+        <v>0.001860694015799225</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E137">
         <v>0.97</v>
@@ -9948,10 +9948,10 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K137">
         <v>0.001418319234573388</v>
@@ -9980,13 +9980,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001844967924295719</v>
+        <v>0.001757044368829404</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E138">
         <v>0.98</v>
@@ -9998,10 +9998,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K138">
         <v>0.001336914234030639</v>
@@ -10030,28 +10030,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00183058527029969</v>
+        <v>0.001588104368580691</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K139">
         <v>0.001294019221853117</v>
@@ -10080,25 +10080,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001728612825930207</v>
+        <v>0.001551767733754371</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>18</v>
+        <v>799</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>372</v>
@@ -10130,25 +10130,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001562406521511646</v>
+        <v>0.001539332766152313</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E141">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F141">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>19</v>
+        <v>1090</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>373</v>
@@ -10180,13 +10180,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001526657866482652</v>
+        <v>0.001522583655968601</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E142">
         <v>0.97</v>
@@ -10198,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>799</v>
+        <v>17</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>374</v>
@@ -10230,25 +10230,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001514424114809515</v>
+        <v>0.001513956004677728</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1090</v>
+        <v>52</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>375</v>
@@ -10280,25 +10280,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001497946029679671</v>
+        <v>0.001508490609205276</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E144">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F144">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>376</v>
@@ -10330,25 +10330,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001489457986381714</v>
+        <v>0.001458858132618637</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E145">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F145">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>377</v>
@@ -10380,25 +10380,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001484081028986634</v>
+        <v>0.001318471888805502</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E146">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>378</v>
@@ -10430,25 +10430,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001435251678326864</v>
+        <v>0.001286536401941286</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F147">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>379</v>
@@ -10480,13 +10480,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001297137088880709</v>
+        <v>0.001192624999797065</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E148">
         <v>0.98</v>
@@ -10498,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>380</v>
@@ -10530,25 +10530,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001265718364814801</v>
+        <v>0.00117080798608204</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>381</v>
@@ -10580,25 +10580,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001173326586253316</v>
+        <v>0.00117080798608204</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E150">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F150">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>382</v>
@@ -10630,13 +10630,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001151862603669647</v>
+        <v>0.00113568978654162</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E151">
         <v>0.97</v>
@@ -10648,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>449</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>383</v>
@@ -10680,13 +10680,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001151862603669647</v>
+        <v>0.00113568978654162</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E152">
         <v>0.97</v>
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>384</v>
@@ -10730,25 +10730,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001117312667864902</v>
+        <v>0.001093763677274401</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E153">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>385</v>
@@ -10780,13 +10780,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001117312667864902</v>
+        <v>0.001083621854633989</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E154">
         <v>0.97</v>
@@ -10798,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>386</v>
@@ -10830,25 +10830,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001076064984251226</v>
+        <v>0.001054925211871358</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>533</v>
+        <v>132</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>387</v>
@@ -10880,25 +10880,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001066087271106619</v>
+        <v>0.001032017113460198</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>388</v>
@@ -10930,25 +10930,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001037854981916524</v>
+        <v>0.001032017113460198</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>31</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>389</v>
@@ -10980,25 +10980,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001015317569979917</v>
+        <v>0.00101011945811949</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E158">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>390</v>
@@ -11030,25 +11030,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001015317569979917</v>
+        <v>0.001007879975530502</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F159">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>391</v>
@@ -11080,25 +11080,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0009937742506697937</v>
+        <v>0.0009924674179329987</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>604</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>392</v>
@@ -11130,13 +11130,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0009915710061783913</v>
+        <v>0.0009909815231387445</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E161">
         <v>0.96</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>393</v>
@@ -11180,25 +11180,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0009764078462627531</v>
+        <v>0.0009641083423791017</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>604</v>
+        <v>209</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>394</v>
@@ -11230,13 +11230,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0009749459954154451</v>
+        <v>0.0009550853541562149</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E163">
         <v>0.96</v>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>395</v>
@@ -11280,25 +11280,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0009485076619511584</v>
+        <v>0.0008259850969702779</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>396</v>
@@ -11330,25 +11330,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0009396306788498774</v>
+        <v>0.0008045309784848689</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>397</v>
@@ -11380,25 +11380,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0008126194522915077</v>
+        <v>0.0007142623186447726</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>398</v>
@@ -11430,25 +11430,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007915124927628693</v>
+        <v>0.0007142623186447726</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E167">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>399</v>
@@ -11480,7 +11480,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007027045116171911</v>
+        <v>0.0007142623186447726</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11498,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>400</v>
@@ -11530,25 +11530,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007027045116171911</v>
+        <v>0.0007091092740553548</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>401</v>
@@ -11580,25 +11580,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0007027045116171911</v>
+        <v>0.0007091092740553548</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>402</v>
@@ -11630,25 +11630,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006976348508118739</v>
+        <v>0.0006817275466947846</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E171">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F171">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>403</v>
@@ -11680,25 +11680,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006976348508118739</v>
+        <v>0.0006468773300728387</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>404</v>
@@ -11730,25 +11730,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006706961997730615</v>
+        <v>0.0006468773300728387</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E173">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>405</v>
@@ -11780,7 +11780,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006364099105319553</v>
+        <v>0.0006468773300728387</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11798,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>406</v>
@@ -11830,7 +11830,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006364099105319553</v>
+        <v>0.0006468773300728387</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>407</v>
@@ -11880,25 +11880,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006364099105319553</v>
+        <v>0.0006379017384957414</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E176">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>408</v>
@@ -11930,25 +11930,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006364099105319553</v>
+        <v>0.0006379017384957414</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E177">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F177">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>409</v>
@@ -11980,25 +11980,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006275795571295434</v>
+        <v>0.0006330564931212775</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E178">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F178">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>410</v>
@@ -12030,25 +12030,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006275795571295434</v>
+        <v>0.0006330564931212775</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E179">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F179">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>411</v>
@@ -12080,25 +12080,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.000622812714898543</v>
+        <v>0.0006093929873674307</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E180">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F180">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>412</v>
@@ -12130,28 +12130,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.000622812714898543</v>
+        <v>0.0006093929873674307</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>194</v>
+        <v>533</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K181">
         <v>0.001211746982614836</v>
@@ -12180,7 +12180,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005995321192128318</v>
+        <v>0.0006093929873674307</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12198,10 +12198,10 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K182">
         <v>0.001169158736426284</v>
@@ -12230,28 +12230,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005995321192128318</v>
+        <v>0.0005688893105612993</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>533</v>
+        <v>56</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K183">
         <v>0.001166341248886345</v>
@@ -12280,25 +12280,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005995321192128318</v>
+        <v>0.0005593426953176605</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F184">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>413</v>
@@ -12330,25 +12330,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.000559683851026493</v>
+        <v>0.0005248964440935637</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F185">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>414</v>
@@ -12380,25 +12380,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005502917139540701</v>
+        <v>0.0005248964440935637</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F186">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>415</v>
@@ -12430,25 +12430,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005164028533609491</v>
+        <v>0.0004768366238938849</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>416</v>
@@ -12480,25 +12480,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005164028533609491</v>
+        <v>0.0004768366238938849</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F188">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>417</v>
@@ -12530,25 +12530,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004691207112119647</v>
+        <v>0.000425844216289268</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>33</v>
+        <v>942</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>418</v>
@@ -12580,25 +12580,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004691207112119647</v>
+        <v>0.0004246659259893839</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>419</v>
@@ -12630,25 +12630,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004189534352033757</v>
+        <v>0.0004246659259893839</v>
       </c>
       <c r="C191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F191">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>942</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>420</v>
@@ -12680,25 +12680,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004177942113606644</v>
+        <v>0.0004239958815447888</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>421</v>
@@ -12730,25 +12730,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004177942113606644</v>
+        <v>0.0004239958815447888</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F193">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>422</v>
@@ -12780,25 +12780,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004171350092133434</v>
+        <v>0.0003654953367158098</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>423</v>
@@ -12830,25 +12830,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004171350092133434</v>
+        <v>0.0003654953367158098</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>424</v>
@@ -12880,7 +12880,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003595810886013952</v>
+        <v>0.0003654953367158098</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>425</v>
@@ -12930,7 +12930,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003595810886013952</v>
+        <v>0.0003654953367158098</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>426</v>
@@ -12980,7 +12980,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003595810886013952</v>
+        <v>0.0003654953367158098</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12998,7 +12998,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>427</v>
@@ -13030,25 +13030,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003595810886013952</v>
+        <v>0.0003213738869340313</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>428</v>
@@ -13080,25 +13080,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003595810886013952</v>
+        <v>0.0003002841560059579</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>429</v>
@@ -13130,25 +13130,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003161735882875413</v>
+        <v>0.0003002841560059579</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>430</v>
@@ -13180,7 +13180,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002954251199936114</v>
+        <v>0.0003002841560059579</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13198,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>431</v>
@@ -13230,7 +13230,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002954251199936114</v>
+        <v>0.0003002841560059579</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>432</v>
@@ -13280,7 +13280,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002954251199936114</v>
+        <v>0.0003002841560059579</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>433</v>
@@ -13330,25 +13330,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002954251199936114</v>
+        <v>0.0002525694577567336</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>434</v>
@@ -13380,25 +13380,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002954251199936114</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>435</v>
@@ -13430,25 +13430,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002484825152180989</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>436</v>
@@ -13480,7 +13480,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.000223568488310204</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13498,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>437</v>
@@ -13530,7 +13530,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.000223568488310204</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>438</v>
@@ -13580,7 +13580,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.000223568488310204</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13598,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>439</v>
@@ -13630,7 +13630,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000223568488310204</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13648,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>440</v>
@@ -13680,7 +13680,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000223568488310204</v>
+        <v>0.0002272456547473324</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13698,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>441</v>
@@ -13730,25 +13730,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000223568488310204</v>
+        <v>0.0002062220987051427</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>442</v>
@@ -13780,25 +13780,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000223568488310204</v>
+        <v>0.0002062220987051427</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>443</v>
@@ -13830,13 +13830,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002028851240958994</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E215">
         <v>0.75</v>
@@ -13848,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>444</v>
@@ -13880,13 +13880,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002028851240958994</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <v>0.75</v>
@@ -13898,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>445</v>
@@ -13930,7 +13930,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>446</v>
@@ -13980,7 +13980,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13998,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>447</v>
@@ -14030,7 +14030,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14048,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>448</v>
@@ -14080,7 +14080,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>449</v>
@@ -14130,7 +14130,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14148,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>450</v>
@@ -14180,7 +14180,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>451</v>
@@ -14230,7 +14230,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14248,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>452</v>
@@ -14280,7 +14280,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>453</v>
@@ -14330,7 +14330,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001434614470500853</v>
+        <v>0.0001458210444249286</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>454</v>
@@ -14380,25 +14380,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001434614470500853</v>
+        <v>8.393809005782247E-05</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>455</v>
@@ -14430,25 +14430,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001434614470500853</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>456</v>
@@ -14480,13 +14480,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>8.257984922412879E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E228">
         <v>0.67</v>
@@ -14498,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>457</v>
@@ -14530,7 +14530,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>458</v>
@@ -14580,7 +14580,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14598,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>459</v>
@@ -14630,7 +14630,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>460</v>
@@ -14680,7 +14680,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14698,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>461</v>
@@ -14730,7 +14730,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14748,7 +14748,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>462</v>
@@ -14780,7 +14780,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>463</v>
@@ -14830,7 +14830,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>5.839277137574412E-05</v>
+        <v>5.935319267973339E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14848,7 +14848,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>464</v>
@@ -14880,25 +14880,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>5.839277137574412E-05</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>465</v>
@@ -14930,25 +14930,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.839277137574412E-05</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>466</v>
@@ -14998,7 +14998,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>467</v>
@@ -15048,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>468</v>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>469</v>
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>470</v>
@@ -15198,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>471</v>
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>472</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>473</v>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>474</v>
@@ -15398,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>475</v>
@@ -15433,10 +15433,10 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E247">
         <v>0.5</v>
@@ -15498,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>477</v>
@@ -15533,10 +15533,10 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>0.5</v>
@@ -15548,7 +15548,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>478</v>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>479</v>
@@ -15648,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>480</v>
@@ -15683,10 +15683,10 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E252">
         <v>0.5</v>
@@ -15698,10 +15698,10 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K252">
         <v>0.001082602571551923</v>
@@ -15751,7 +15751,7 @@
         <v>27</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K253">
         <v>0.001012289509602549</v>
@@ -15783,10 +15783,10 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E254">
         <v>0.5</v>
@@ -15798,7 +15798,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>481</v>
@@ -15826,30 +15826,6 @@
       </c>
     </row>
     <row r="255" spans="1:17">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>2</v>
-      </c>
-      <c r="E255">
-        <v>0.5</v>
-      </c>
-      <c r="F255">
-        <v>0.5</v>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255">
-        <v>27</v>
-      </c>
       <c r="J255" s="1" t="s">
         <v>482</v>
       </c>
@@ -15876,30 +15852,6 @@
       </c>
     </row>
     <row r="256" spans="1:17">
-      <c r="A256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>2</v>
-      </c>
-      <c r="E256">
-        <v>0.5</v>
-      </c>
-      <c r="F256">
-        <v>0.5</v>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256">
-        <v>12</v>
-      </c>
       <c r="J256" s="1" t="s">
         <v>483</v>
       </c>
@@ -19099,7 +19051,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K379">
         <v>0.0009092685048151028</v>
@@ -19125,7 +19077,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K380">
         <v>0.0009092685048151028</v>
@@ -19151,7 +19103,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K381">
         <v>0.0008744963538005296</v>
@@ -19177,7 +19129,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K382">
         <v>0.0008108298195727189</v>
@@ -19203,7 +19155,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K383">
         <v>0.0008043012896508595</v>
@@ -27705,7 +27657,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K710">
         <v>0.0006183623018952647</v>
@@ -27731,7 +27683,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K711">
         <v>0.0006183623018952647</v>
@@ -27757,7 +27709,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K712">
         <v>0.0006183623018952647</v>
@@ -27783,7 +27735,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K713">
         <v>0.0005929142341823501</v>
@@ -27809,7 +27761,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K714">
         <v>0.0005886593131867907</v>
@@ -27835,7 +27787,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K715">
         <v>0.0005687268960292075</v>
@@ -27861,7 +27813,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K716">
         <v>0.0005184821419667687</v>
@@ -27887,7 +27839,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K717">
         <v>0.0005184821419667687</v>
@@ -27913,7 +27865,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K718">
         <v>0.0005184821419667687</v>
@@ -27939,7 +27891,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K719">
         <v>0.0005184821419667687</v>
@@ -27965,7 +27917,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K720">
         <v>0.00047834790504409</v>
@@ -27991,7 +27943,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K721">
         <v>0.00047834790504409</v>
@@ -28017,7 +27969,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K722">
         <v>0.0004676436514763149</v>
@@ -28043,7 +27995,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K723">
         <v>0.0004676436514763149</v>
@@ -28069,7 +28021,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K724">
         <v>0.0004676436514763149</v>
@@ -28095,7 +28047,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K725">
         <v>0.0004162449921629948</v>
@@ -28121,7 +28073,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K726">
         <v>0.0004042087081201753</v>
@@ -28147,7 +28099,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K727">
         <v>0.0004042087081201753</v>
@@ -28173,7 +28125,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K728">
         <v>0.0003643477848713739</v>
@@ -28199,7 +28151,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K729">
         <v>0.0003643477848713739</v>
@@ -28225,7 +28177,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K730">
         <v>0.000358789182772161</v>
@@ -28251,7 +28203,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K731">
         <v>0.000358789182772161</v>
@@ -28277,7 +28229,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K732">
         <v>0.0003299558990845628</v>
@@ -28329,7 +28281,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K734">
         <v>0.0003120583774337805</v>
@@ -28355,7 +28307,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K735">
         <v>0.0003120583774337805</v>
@@ -28381,7 +28333,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K736">
         <v>0.0002595564981930415</v>
@@ -28407,7 +28359,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K737">
         <v>0.0002595564981930415</v>
@@ -28433,7 +28385,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K738">
         <v>0.0002197119436820624</v>
@@ -28459,7 +28411,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K739">
         <v>0.0002197119436820624</v>
@@ -28485,7 +28437,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K740">
         <v>0.000207147031255833</v>
@@ -28511,7 +28463,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K741">
         <v>0.000207147031255833</v>
@@ -28537,7 +28489,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K742">
         <v>0.000207147031255833</v>
@@ -28563,7 +28515,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K743">
         <v>0.000207147031255833</v>
@@ -28589,7 +28541,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K744">
         <v>0.000207147031255833</v>
@@ -28615,7 +28567,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K745">
         <v>0.0001798918027016085</v>
@@ -28641,7 +28593,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K746">
         <v>0.0001553598052852632</v>
@@ -28667,7 +28619,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K747">
         <v>0.0001553598052852632</v>
@@ -28693,7 +28645,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K748">
         <v>0.0001553598052852632</v>
@@ -28719,7 +28671,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K749">
         <v>0.0001553598052852632</v>
@@ -28745,7 +28697,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K750">
         <v>0.0001553598052852632</v>
@@ -28771,7 +28723,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K751">
         <v>0.0001487174154540419</v>
@@ -28797,7 +28749,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K752">
         <v>0.0001051590929480901</v>
@@ -28823,7 +28775,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K753">
         <v>0.0001051590929480901</v>
@@ -28849,7 +28801,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K754">
         <v>0.0001051590929480901</v>
@@ -28875,7 +28827,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K755">
         <v>0.0001051590929480901</v>
@@ -28901,7 +28853,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K756">
         <v>0.0001051590929480901</v>
@@ -28927,7 +28879,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K757">
         <v>0.0001051590929480901</v>
@@ -28953,7 +28905,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K758">
         <v>0.0001051590929480901</v>
@@ -28979,7 +28931,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K759">
         <v>8.264509396664532E-05</v>
@@ -29005,7 +28957,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K760">
         <v>8.264509396664532E-05</v>
@@ -29031,7 +28983,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K761">
         <v>5.843890637561434E-05</v>
@@ -29057,7 +29009,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K762">
         <v>5.843890637561434E-05</v>
@@ -29083,7 +29035,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K763">
         <v>5.843890637561434E-05</v>
@@ -29109,7 +29061,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K764">
         <v>5.843890637561434E-05</v>
@@ -29135,7 +29087,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K765">
         <v>5.843890637561434E-05</v>
@@ -29161,7 +29113,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K766">
         <v>5.843890637561434E-05</v>
@@ -29187,7 +29139,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K767">
         <v>5.843890637561434E-05</v>
@@ -29213,7 +29165,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K768">
         <v>5.843890637561434E-05</v>
@@ -29239,7 +29191,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K769">
         <v>5.843890637561434E-05</v>
@@ -29265,7 +29217,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K770">
         <v>5.843890637561434E-05</v>
@@ -29291,7 +29243,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K771">
         <v>5.843890637561434E-05</v>
@@ -29317,7 +29269,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K772">
         <v>3.373971832710842E-05</v>
@@ -29343,7 +29295,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K773">
         <v>2.746599451027487E-05</v>
@@ -29369,7 +29321,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K774">
         <v>1.942139097024795E-05</v>
@@ -29395,7 +29347,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K775">
         <v>1.942139097024795E-05</v>
@@ -29421,7 +29373,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K776">
         <v>1.942139097024795E-05</v>
@@ -29447,7 +29399,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K777">
         <v>1.942139097024795E-05</v>
@@ -29473,7 +29425,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K778">
         <v>1.942139097024795E-05</v>
@@ -29499,7 +29451,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K779">
         <v>1.942139097024795E-05</v>
@@ -29525,7 +29477,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K780">
         <v>1.942139097024795E-05</v>
@@ -29551,7 +29503,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K781">
         <v>1.942139097024795E-05</v>
@@ -29577,7 +29529,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K782">
         <v>1.942139097024795E-05</v>
@@ -29603,7 +29555,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K783">
         <v>0</v>
@@ -29629,7 +29581,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K784">
         <v>0</v>
@@ -29655,7 +29607,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K785">
         <v>0</v>
@@ -29681,7 +29633,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K786">
         <v>0</v>
@@ -29707,7 +29659,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K787">
         <v>0</v>
@@ -29733,7 +29685,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K788">
         <v>0</v>
@@ -29759,7 +29711,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K789">
         <v>0</v>
@@ -29785,7 +29737,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K790">
         <v>0</v>
@@ -29811,7 +29763,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K791">
         <v>0</v>
@@ -29837,7 +29789,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K792">
         <v>0</v>
@@ -29863,7 +29815,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K793">
         <v>0</v>
@@ -29889,7 +29841,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K794">
         <v>0</v>
@@ -29915,7 +29867,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K795">
         <v>0</v>
@@ -29941,7 +29893,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K796">
         <v>0</v>
@@ -29967,7 +29919,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K797">
         <v>0</v>
@@ -29993,7 +29945,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K798">
         <v>0</v>
@@ -30019,7 +29971,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K799">
         <v>0</v>
@@ -30045,7 +29997,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K800">
         <v>0</v>
@@ -30071,7 +30023,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K801">
         <v>0</v>
